--- a/文档/文档/通信协议/国轩2厂通信协议V2.17.xlsx
+++ b/文档/文档/通信协议/国轩2厂通信协议V2.17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\项目\国轩\Git_Gotion2\Gotion_ECAMS\文档\文档\通信协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2ED13E85-B709-4347-AF13-309552B671D0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5FC6F112-F8AC-47BA-B4C5-4A7FCE443F60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" tabRatio="562" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件版本" sheetId="4" r:id="rId1"/>
@@ -1185,12 +1185,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>0：正常
-1：重码
-2：混批</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>V</t>
     </r>
@@ -1209,6 +1203,13 @@
   </si>
   <si>
     <t>修改混批，重码防呆协议，每个位置都提示是否重码，混批</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：正常
+1：重码
+2：混批
+3：空码</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1687,6 +1688,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1699,85 +1704,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,19 +1728,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1813,13 +1746,85 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1846,10 +1851,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10922,8 +10923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10936,13 +10937,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
@@ -11234,11 +11235,11 @@
       <c r="A21" s="69">
         <v>19</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="72" t="s">
         <v>242</v>
-      </c>
-      <c r="C21" s="125" t="s">
-        <v>243</v>
       </c>
       <c r="D21" s="70">
         <v>43247</v>
@@ -11269,11 +11270,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
     </row>
     <row r="3" spans="2:4" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -11296,7 +11297,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="86">
+      <c r="B5" s="99">
         <v>2</v>
       </c>
       <c r="C5" s="60" t="s">
@@ -11305,7 +11306,7 @@
       <c r="D5" s="60"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="86"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="60" t="s">
         <v>216</v>
       </c>
@@ -11371,64 +11372,64 @@
     </row>
     <row r="14" spans="2:4" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B14" s="65"/>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="120"/>
+      <c r="D14" s="122"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="65">
         <v>1</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="122"/>
+      <c r="D15" s="124"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="65">
         <v>2</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="122"/>
+      <c r="D16" s="124"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="65">
         <v>3</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="125" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="122"/>
+      <c r="D17" s="124"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="65">
         <v>4</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="D18" s="122"/>
+      <c r="D18" s="124"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="65">
         <v>5</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="D19" s="122"/>
+      <c r="D19" s="124"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="65">
         <v>6</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="122"/>
+      <c r="D20" s="124"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="65"/>
@@ -11452,57 +11453,57 @@
       <c r="B25" s="65">
         <v>1</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="122"/>
+      <c r="D25" s="124"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="65">
         <v>2</v>
       </c>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="122"/>
+      <c r="D26" s="124"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="65">
         <v>3</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="123" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="122"/>
+      <c r="D27" s="124"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="65">
         <v>4</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="122"/>
+      <c r="D28" s="124"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="65">
         <v>5</v>
       </c>
-      <c r="C29" s="121" t="s">
+      <c r="C29" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="122"/>
+      <c r="D29" s="124"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="65">
         <v>6</v>
       </c>
-      <c r="C30" s="121" t="s">
+      <c r="C30" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="122"/>
+      <c r="D30" s="124"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="65"/>
@@ -11557,38 +11558,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
     </row>
     <row r="87" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K87" s="55"/>
@@ -11673,12 +11674,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="49" t="s">
@@ -11863,11 +11864,11 @@
       <c r="D21" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
     </row>
     <row r="27" spans="1:4" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B27" s="49" t="s">
@@ -11947,11 +11948,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11972,57 +11973,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="88" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="88" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="88" t="s">
+      <c r="J2" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="11" t="s">
         <v>76</v>
       </c>
@@ -12035,8 +12036,8 @@
       <c r="G3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="20" t="s">
         <v>76</v>
       </c>
@@ -12057,13 +12058,13 @@
       <c r="R3" s="37"/>
     </row>
     <row r="4" spans="1:18" ht="28" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="95">
         <v>2001</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="95">
         <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -12079,10 +12080,10 @@
       <c r="G4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="80">
+      <c r="H4" s="95">
         <v>3001</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="95">
         <v>80</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -12098,9 +12099,9 @@
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:18" ht="42" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="14" t="s">
         <v>83</v>
       </c>
@@ -12114,8 +12115,8 @@
       <c r="G5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="3" t="s">
         <v>85</v>
       </c>
@@ -12131,9 +12132,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="14" t="s">
         <v>87</v>
       </c>
@@ -12147,8 +12148,8 @@
       <c r="G6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
       <c r="J6" s="3" t="s">
         <v>89</v>
       </c>
@@ -12164,9 +12165,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="70" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="14" t="s">
         <v>91</v>
       </c>
@@ -12180,8 +12181,8 @@
       <c r="G7" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="3" t="s">
         <v>93</v>
       </c>
@@ -12197,9 +12198,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="56" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="3" t="s">
         <v>95</v>
       </c>
@@ -12211,8 +12212,8 @@
         <v>1</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="3" t="s">
         <v>96</v>
       </c>
@@ -12231,9 +12232,9 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="3" t="s">
         <v>99</v>
       </c>
@@ -12245,8 +12246,8 @@
         <v>1</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
       <c r="J9" s="14" t="s">
         <v>100</v>
       </c>
@@ -12260,9 +12261,9 @@
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:18" ht="28" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="3" t="s">
         <v>101</v>
       </c>
@@ -12274,8 +12275,8 @@
         <v>1</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
       <c r="J10" s="14" t="s">
         <v>102</v>
       </c>
@@ -12289,62 +12290,62 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
       <c r="J11" s="14"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
     </row>
     <row r="15" spans="1:18" ht="70" x14ac:dyDescent="0.25">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="98">
         <f>B4+C4</f>
         <v>2061</v>
       </c>
-      <c r="C15" s="95">
+      <c r="C15" s="98">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -12360,11 +12361,11 @@
       <c r="G15" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="85">
+      <c r="H15" s="109">
         <f>H4+I4</f>
         <v>3081</v>
       </c>
-      <c r="I15" s="85">
+      <c r="I15" s="109">
         <f>10</f>
         <v>10</v>
       </c>
@@ -12383,9 +12384,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="11" t="s">
         <v>108</v>
       </c>
@@ -12399,8 +12400,8 @@
       <c r="G16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="20" t="s">
         <v>110</v>
       </c>
@@ -12419,9 +12420,9 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="84" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="11" t="s">
         <v>113</v>
       </c>
@@ -12434,8 +12435,8 @@
       <c r="G17" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="20" t="s">
         <v>65</v>
       </c>
@@ -12454,15 +12455,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="42" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
       <c r="J18" s="20" t="s">
         <v>117</v>
       </c>
@@ -12478,59 +12479,59 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
       <c r="J19" s="34"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
       <c r="J20" s="34"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
       <c r="J21" s="34"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:14" ht="42" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="86">
+      <c r="B22" s="99">
         <f>B15+C15</f>
         <v>2071</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="99">
         <v>10</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -12546,11 +12547,11 @@
       <c r="G22" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="86">
+      <c r="H22" s="99">
         <f>H15+I15</f>
         <v>3091</v>
       </c>
-      <c r="I22" s="86">
+      <c r="I22" s="99">
         <v>10</v>
       </c>
       <c r="J22" s="14" t="s">
@@ -12568,9 +12569,9 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="3" t="s">
         <v>108</v>
       </c>
@@ -12584,8 +12585,8 @@
       <c r="G23" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
       <c r="J23" s="14" t="s">
         <v>124</v>
       </c>
@@ -12601,9 +12602,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="70" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="3" t="s">
         <v>113</v>
       </c>
@@ -12616,8 +12617,8 @@
       <c r="G24" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
       <c r="J24" s="14" t="s">
         <v>65</v>
       </c>
@@ -12636,15 +12637,15 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="42" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
       <c r="J25" s="39" t="s">
         <v>117</v>
       </c>
@@ -12660,29 +12661,29 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
       <c r="J26" s="14"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="96">
+      <c r="B27" s="100">
         <f>B22+C22</f>
         <v>2081</v>
       </c>
-      <c r="C27" s="96">
+      <c r="C27" s="100">
         <v>10</v>
       </c>
       <c r="D27" s="11"/>
@@ -12692,7 +12693,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="89">
+      <c r="H27" s="110">
         <f>H22+I22</f>
         <v>3101</v>
       </c>
@@ -12714,14 +12715,14 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="113"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="90"/>
+      <c r="H28" s="111"/>
       <c r="I28" s="21"/>
       <c r="J28" s="34"/>
       <c r="K28" s="20"/>
@@ -12729,14 +12730,14 @@
       <c r="M28" s="38"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="113"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="90"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="21"/>
       <c r="J29" s="34"/>
       <c r="K29" s="20"/>
@@ -12744,14 +12745,14 @@
       <c r="M29" s="38"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="91"/>
+      <c r="H30" s="112"/>
       <c r="I30" s="21"/>
       <c r="J30" s="34"/>
       <c r="K30" s="20"/>
@@ -12759,14 +12760,14 @@
       <c r="M30" s="38"/>
     </row>
     <row r="31" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="80">
+      <c r="B31" s="95">
         <f>B27+C27</f>
         <v>2091</v>
       </c>
-      <c r="C31" s="80">
+      <c r="C31" s="95">
         <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -12804,9 +12805,9 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="70" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -12828,9 +12829,9 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -12843,9 +12844,9 @@
       <c r="M33" s="16"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -12858,14 +12859,14 @@
       <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="92">
+      <c r="B35" s="103">
         <f>B31+C31</f>
         <v>2101</v>
       </c>
-      <c r="C35" s="92">
+      <c r="C35" s="103">
         <v>60</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -12879,11 +12880,11 @@
         <v>1</v>
       </c>
       <c r="G35" s="23"/>
-      <c r="H35" s="87">
+      <c r="H35" s="113">
         <f>H22+I22</f>
         <v>3101</v>
       </c>
-      <c r="I35" s="87">
+      <c r="I35" s="113">
         <v>60</v>
       </c>
       <c r="J35" s="9" t="s">
@@ -12899,9 +12900,9 @@
       <c r="M35" s="41"/>
     </row>
     <row r="36" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="103"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
       <c r="D36" s="10" t="s">
         <v>83</v>
       </c>
@@ -12913,8 +12914,8 @@
         <v>1</v>
       </c>
       <c r="G36" s="23"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
       <c r="J36" s="9" t="s">
         <v>85</v>
       </c>
@@ -12928,9 +12929,9 @@
       <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
       <c r="D37" s="10" t="s">
         <v>136</v>
       </c>
@@ -12944,8 +12945,8 @@
       <c r="G37" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
       <c r="J37" s="9" t="s">
         <v>89</v>
       </c>
@@ -12959,9 +12960,9 @@
       <c r="M37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="103"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
       <c r="D38" s="8" t="s">
         <v>91</v>
       </c>
@@ -12975,8 +12976,8 @@
       <c r="G38" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
       <c r="J38" s="33" t="s">
         <v>139</v>
       </c>
@@ -12990,9 +12991,9 @@
       <c r="M38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="103"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="8" t="s">
         <v>95</v>
       </c>
@@ -13004,8 +13005,8 @@
         <v>1</v>
       </c>
       <c r="G39" s="23"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
       <c r="J39" s="24" t="s">
         <v>96</v>
       </c>
@@ -13021,9 +13022,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="103"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
       <c r="D40" s="8" t="s">
         <v>99</v>
       </c>
@@ -13035,8 +13036,8 @@
         <v>1</v>
       </c>
       <c r="G40" s="23"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
       <c r="J40" s="33" t="s">
         <v>100</v>
       </c>
@@ -13050,9 +13051,9 @@
       <c r="M40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="103"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
       <c r="D41" s="8" t="s">
         <v>101</v>
       </c>
@@ -13064,8 +13065,8 @@
         <v>1</v>
       </c>
       <c r="G41" s="23"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
       <c r="J41" s="33" t="s">
         <v>102</v>
       </c>
@@ -13079,15 +13080,15 @@
       <c r="M41" s="41"/>
     </row>
     <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="103"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
       <c r="J42" s="33"/>
       <c r="K42" s="9">
         <f t="shared" si="6"/>
@@ -13099,52 +13100,52 @@
       <c r="M42" s="41"/>
     </row>
     <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="103"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
       <c r="J43" s="33"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="41"/>
     </row>
     <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="103"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
       <c r="J44" s="33"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="41"/>
     </row>
     <row r="45" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="103"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="27"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
       <c r="J45" s="43"/>
       <c r="K45" s="43"/>
       <c r="L45" s="43"/>
       <c r="M45" s="41"/>
     </row>
     <row r="46" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="105" t="s">
+      <c r="A46" s="81" t="s">
         <v>141</v>
       </c>
       <c r="B46" s="28">
@@ -13168,11 +13169,11 @@
       <c r="G46" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="75">
+      <c r="H46" s="106">
         <f>H35+I35</f>
         <v>3161</v>
       </c>
-      <c r="I46" s="75">
+      <c r="I46" s="106">
         <v>10</v>
       </c>
       <c r="J46" s="44" t="s">
@@ -13190,7 +13191,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="105"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29" t="s">
@@ -13206,8 +13207,8 @@
       <c r="G47" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
       <c r="J47" s="44" t="s">
         <v>124</v>
       </c>
@@ -13223,7 +13224,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="105"/>
+      <c r="A48" s="81"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29" t="s">
@@ -13238,8 +13239,8 @@
       <c r="G48" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
       <c r="J48" s="44" t="s">
         <v>65</v>
       </c>
@@ -13258,7 +13259,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
+      <c r="A49" s="82"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
@@ -13282,14 +13283,14 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="92">
+      <c r="B50" s="103">
         <f>B46+C46</f>
         <v>2171</v>
       </c>
-      <c r="C50" s="92">
+      <c r="C50" s="103">
         <v>10</v>
       </c>
       <c r="D50" s="22" t="s">
@@ -13304,11 +13305,11 @@
       <c r="G50" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="H50" s="78">
+      <c r="H50" s="114">
         <f>H46+I46</f>
         <v>3171</v>
       </c>
-      <c r="I50" s="78">
+      <c r="I50" s="114">
         <v>10</v>
       </c>
       <c r="J50" s="33" t="s">
@@ -13326,15 +13327,15 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="103"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="27"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
       <c r="J51" s="33" t="s">
         <v>124</v>
       </c>
@@ -13348,29 +13349,29 @@
       <c r="M51" s="41"/>
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="27"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="78"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="114"/>
       <c r="J52" s="33"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="41"/>
     </row>
     <row r="53" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="75">
+      <c r="B53" s="106">
         <f>B50+C50</f>
         <v>2181</v>
       </c>
-      <c r="C53" s="75">
+      <c r="C53" s="106">
         <v>10</v>
       </c>
       <c r="D53" s="29" t="s">
@@ -13386,11 +13387,11 @@
       <c r="G53" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="H53" s="75">
+      <c r="H53" s="106">
         <f>H50+I50</f>
         <v>3181</v>
       </c>
-      <c r="I53" s="76">
+      <c r="I53" s="107">
         <v>10</v>
       </c>
       <c r="J53" s="44" t="s">
@@ -13408,15 +13409,15 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="105"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
       <c r="G54" s="31"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
       <c r="J54" s="44" t="s">
         <v>152</v>
       </c>
@@ -13432,22 +13433,22 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="106"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
       <c r="G55" s="31"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="76"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="107"/>
       <c r="J55" s="44"/>
       <c r="K55" s="45"/>
       <c r="L55" s="45"/>
       <c r="M55" s="48"/>
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="83" t="s">
         <v>154</v>
       </c>
       <c r="B56" s="22">
@@ -13461,11 +13462,11 @@
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="27"/>
-      <c r="H56" s="87">
+      <c r="H56" s="113">
         <f>H53+I53</f>
         <v>3191</v>
       </c>
-      <c r="I56" s="78">
+      <c r="I56" s="114">
         <v>10</v>
       </c>
       <c r="J56" s="33" t="s">
@@ -13483,44 +13484,44 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="103"/>
+      <c r="A57" s="84"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="27"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
       <c r="J57" s="33"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="41"/>
     </row>
     <row r="58" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="27"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
       <c r="J58" s="33"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="41"/>
     </row>
     <row r="59" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="99" t="s">
+      <c r="A59" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="B59" s="80">
+      <c r="B59" s="95">
         <f>B56+C56</f>
         <v>2201</v>
       </c>
-      <c r="C59" s="80">
+      <c r="C59" s="95">
         <v>100</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -13534,11 +13535,11 @@
         <v>1</v>
       </c>
       <c r="G59" s="18"/>
-      <c r="H59" s="80">
+      <c r="H59" s="95">
         <f>H56+I56</f>
         <v>3201</v>
       </c>
-      <c r="I59" s="80">
+      <c r="I59" s="95">
         <v>400</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -13554,9 +13555,9 @@
       <c r="M59" s="18"/>
     </row>
     <row r="60" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="A60" s="100"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
+      <c r="A60" s="92"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="96"/>
       <c r="D60" s="14" t="s">
         <v>237</v>
       </c>
@@ -13568,8 +13569,8 @@
         <v>1</v>
       </c>
       <c r="G60" s="18"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
       <c r="J60" s="3" t="s">
         <v>85</v>
       </c>
@@ -13585,9 +13586,9 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="112" x14ac:dyDescent="0.25">
-      <c r="A61" s="100"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
       <c r="D61" s="14" t="s">
         <v>87</v>
       </c>
@@ -13601,8 +13602,8 @@
       <c r="G61" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
       <c r="J61" s="3" t="s">
         <v>89</v>
       </c>
@@ -13616,9 +13617,9 @@
       <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:13" ht="28" x14ac:dyDescent="0.25">
-      <c r="A62" s="100"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="81"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="14" t="s">
         <v>91</v>
       </c>
@@ -13632,8 +13633,8 @@
       <c r="G62" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
       <c r="J62" s="3" t="s">
         <v>93</v>
       </c>
@@ -13647,9 +13648,9 @@
       <c r="M62" s="18"/>
     </row>
     <row r="63" spans="1:13" ht="56" x14ac:dyDescent="0.25">
-      <c r="A63" s="100"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="81"/>
+      <c r="A63" s="92"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
       <c r="D63" s="3" t="s">
         <v>158</v>
       </c>
@@ -13663,8 +13664,8 @@
       <c r="G63" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
       <c r="J63" s="3" t="s">
         <v>96</v>
       </c>
@@ -13679,10 +13680,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="A64" s="100"/>
-      <c r="B64" s="81"/>
-      <c r="C64" s="81"/>
+    <row r="64" spans="1:13" ht="56" x14ac:dyDescent="0.25">
+      <c r="A64" s="92"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
       <c r="D64" s="3" t="s">
         <v>238</v>
       </c>
@@ -13693,11 +13694,11 @@
       <c r="F64" s="3">
         <v>1</v>
       </c>
-      <c r="G64" s="124" t="s">
-        <v>241</v>
-      </c>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
+      <c r="G64" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
       <c r="J64" s="3" t="s">
         <v>160</v>
       </c>
@@ -13712,10 +13713,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="A65" s="100"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="81"/>
+    <row r="65" spans="1:13" ht="56" x14ac:dyDescent="0.25">
+      <c r="A65" s="92"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
       <c r="D65" s="3" t="s">
         <v>239</v>
       </c>
@@ -13726,11 +13727,11 @@
       <c r="F65" s="3">
         <v>1</v>
       </c>
-      <c r="G65" s="124" t="s">
-        <v>241</v>
-      </c>
-      <c r="H65" s="81"/>
-      <c r="I65" s="81"/>
+      <c r="G65" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
       <c r="J65" s="3" t="s">
         <v>162</v>
       </c>
@@ -13746,10 +13747,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="A66" s="101"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="82"/>
+    <row r="66" spans="1:13" ht="56" x14ac:dyDescent="0.25">
+      <c r="A66" s="93"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
       <c r="D66" s="3" t="s">
         <v>240</v>
       </c>
@@ -13760,21 +13761,21 @@
       <c r="F66" s="3">
         <v>1</v>
       </c>
-      <c r="G66" s="124" t="s">
-        <v>241</v>
-      </c>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
+      <c r="G66" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
     </row>
     <row r="67" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="92">
+      <c r="B67" s="103">
         <f>B59+C59</f>
         <v>2301</v>
       </c>
-      <c r="C67" s="92">
+      <c r="C67" s="103">
         <v>100</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -13788,11 +13789,11 @@
         <v>1</v>
       </c>
       <c r="G67" s="23"/>
-      <c r="H67" s="83">
+      <c r="H67" s="116">
         <f>H59+I59</f>
         <v>3601</v>
       </c>
-      <c r="I67" s="83">
+      <c r="I67" s="116">
         <v>100</v>
       </c>
       <c r="J67" s="33" t="s">
@@ -13808,9 +13809,9 @@
       <c r="M67" s="47"/>
     </row>
     <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="103"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="93"/>
+      <c r="A68" s="84"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="104"/>
       <c r="D68" s="10" t="s">
         <v>83</v>
       </c>
@@ -13822,8 +13823,8 @@
         <v>1</v>
       </c>
       <c r="G68" s="23"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
       <c r="J68" s="33" t="s">
         <v>85</v>
       </c>
@@ -13837,9 +13838,9 @@
       <c r="M68" s="47"/>
     </row>
     <row r="69" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="103"/>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
       <c r="D69" s="10" t="s">
         <v>87</v>
       </c>
@@ -13853,8 +13854,8 @@
       <c r="G69" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
+      <c r="H69" s="117"/>
+      <c r="I69" s="117"/>
       <c r="J69" s="33" t="s">
         <v>89</v>
       </c>
@@ -13868,9 +13869,9 @@
       <c r="M69" s="47"/>
     </row>
     <row r="70" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="103"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="93"/>
+      <c r="A70" s="84"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
       <c r="D70" s="10" t="s">
         <v>165</v>
       </c>
@@ -13884,8 +13885,8 @@
       <c r="G70" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
+      <c r="H70" s="117"/>
+      <c r="I70" s="117"/>
       <c r="J70" s="33" t="s">
         <v>93</v>
       </c>
@@ -13899,9 +13900,9 @@
       <c r="M70" s="47"/>
     </row>
     <row r="71" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="103"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="93"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="104"/>
       <c r="D71" s="10" t="s">
         <v>167</v>
       </c>
@@ -13915,8 +13916,8 @@
       <c r="G71" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
+      <c r="H71" s="117"/>
+      <c r="I71" s="117"/>
       <c r="J71" s="33" t="s">
         <v>96</v>
       </c>
@@ -13932,9 +13933,9 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="103"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="25"/>
-      <c r="C72" s="93"/>
+      <c r="C72" s="104"/>
       <c r="D72" s="10" t="s">
         <v>158</v>
       </c>
@@ -13948,8 +13949,8 @@
       <c r="G72" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
+      <c r="H72" s="117"/>
+      <c r="I72" s="117"/>
       <c r="J72" s="33" t="s">
         <v>170</v>
       </c>
@@ -13965,9 +13966,9 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="103"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="25"/>
-      <c r="C73" s="93"/>
+      <c r="C73" s="104"/>
       <c r="D73" s="10" t="s">
         <v>172</v>
       </c>
@@ -13981,8 +13982,8 @@
       <c r="G73" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
+      <c r="H73" s="117"/>
+      <c r="I73" s="117"/>
       <c r="J73" s="33" t="s">
         <v>174</v>
       </c>
@@ -13998,14 +13999,14 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="104" t="s">
+      <c r="A74" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="75">
+      <c r="B74" s="106">
         <f>B67+C67</f>
         <v>2401</v>
       </c>
-      <c r="C74" s="75">
+      <c r="C74" s="106">
         <v>100</v>
       </c>
       <c r="D74" s="45" t="s">
@@ -14019,11 +14020,11 @@
         <v>1</v>
       </c>
       <c r="G74" s="48"/>
-      <c r="H74" s="75">
+      <c r="H74" s="106">
         <f>H67+I67</f>
         <v>3701</v>
       </c>
-      <c r="I74" s="75">
+      <c r="I74" s="106">
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
@@ -14039,9 +14040,9 @@
       <c r="M74" s="48"/>
     </row>
     <row r="75" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="105"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
       <c r="D75" s="44" t="s">
         <v>83</v>
       </c>
@@ -14053,8 +14054,8 @@
         <v>1</v>
       </c>
       <c r="G75" s="48"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="107"/>
       <c r="J75" s="3" t="s">
         <v>85</v>
       </c>
@@ -14070,9 +14071,9 @@
       </c>
     </row>
     <row r="76" spans="1:13" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="105"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="107"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="44" t="s">
         <v>87</v>
       </c>
@@ -14086,8 +14087,8 @@
       <c r="G76" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="107"/>
       <c r="J76" s="3" t="s">
         <v>89</v>
       </c>
@@ -14101,9 +14102,9 @@
       <c r="M76" s="48"/>
     </row>
     <row r="77" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="105"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="76"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="107"/>
       <c r="D77" s="44" t="s">
         <v>91</v>
       </c>
@@ -14117,8 +14118,8 @@
       <c r="G77" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
       <c r="J77" s="3" t="s">
         <v>93</v>
       </c>
@@ -14132,9 +14133,9 @@
       <c r="M77" s="48"/>
     </row>
     <row r="78" spans="1:13" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="105"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="76"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="107"/>
       <c r="D78" s="44" t="s">
         <v>167</v>
       </c>
@@ -14148,8 +14149,8 @@
       <c r="G78" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
+      <c r="H78" s="107"/>
+      <c r="I78" s="107"/>
       <c r="J78" s="3" t="s">
         <v>96</v>
       </c>
@@ -14165,9 +14166,9 @@
       </c>
     </row>
     <row r="79" spans="1:13" s="6" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="105"/>
-      <c r="B79" s="76"/>
-      <c r="C79" s="76"/>
+      <c r="A79" s="81"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="107"/>
       <c r="D79" s="44" t="s">
         <v>158</v>
       </c>
@@ -14181,8 +14182,8 @@
       <c r="G79" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
+      <c r="H79" s="107"/>
+      <c r="I79" s="107"/>
       <c r="J79" s="39" t="s">
         <v>170</v>
       </c>
@@ -14198,15 +14199,15 @@
       </c>
     </row>
     <row r="80" spans="1:13" s="6" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="106"/>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
+      <c r="A80" s="82"/>
+      <c r="B80" s="108"/>
+      <c r="C80" s="108"/>
       <c r="D80" s="44"/>
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
       <c r="G80" s="46"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="77"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="108"/>
       <c r="J80" s="39" t="s">
         <v>177</v>
       </c>
@@ -14223,22 +14224,41 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="I74:I80"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="I59:I66"/>
+    <mergeCell ref="I67:I73"/>
+    <mergeCell ref="I4:I14"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="I35:I45"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H14"/>
+    <mergeCell ref="H15:H21"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H35:H45"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H59:H66"/>
+    <mergeCell ref="H67:H73"/>
+    <mergeCell ref="H74:H80"/>
+    <mergeCell ref="C35:C45"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="C4:C14"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
     <mergeCell ref="A59:A66"/>
     <mergeCell ref="A67:A73"/>
     <mergeCell ref="A74:A80"/>
@@ -14255,41 +14275,22 @@
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="A35:A45"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="C4:C14"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H14"/>
-    <mergeCell ref="H15:H21"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H35:H45"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="H59:H66"/>
-    <mergeCell ref="H67:H73"/>
-    <mergeCell ref="H74:H80"/>
-    <mergeCell ref="C35:C45"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="I4:I14"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="I35:I45"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I74:I80"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="I59:I66"/>
-    <mergeCell ref="I67:I73"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14308,19 +14309,19 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14390,35 +14391,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="F19" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14448,11 +14449,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/文档/文档/通信协议/国轩2厂通信协议V2.17.xlsx
+++ b/文档/文档/通信协议/国轩2厂通信协议V2.17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\项目\国轩\Git_Gotion2\Gotion_ECAMS\文档\文档\通信协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5FC6F112-F8AC-47BA-B4C5-4A7FCE443F60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{621B503D-E6CE-44F7-A476-65DF09F2E5BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" tabRatio="562" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" tabRatio="562" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件版本" sheetId="4" r:id="rId1"/>
@@ -964,9 +964,6 @@
     <t>OCV3 检测工位</t>
   </si>
   <si>
-    <t>一次分拣工位</t>
-  </si>
-  <si>
     <t>一次分拣完后码垛前</t>
   </si>
   <si>
@@ -1210,6 +1207,10 @@
 1：重码
 2：混批
 3：空码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次分拣工位</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1704,16 +1705,94 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1722,16 +1801,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1746,85 +1819,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11222,10 +11223,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="69" t="s">
         <v>235</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>236</v>
       </c>
       <c r="D20" s="70">
         <v>43244</v>
@@ -11236,10 +11237,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="72" t="s">
         <v>241</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>242</v>
       </c>
       <c r="D21" s="70">
         <v>43247</v>
@@ -11271,7 +11272,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="121" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="121"/>
       <c r="D2" s="121"/>
@@ -11279,10 +11280,10 @@
     <row r="3" spans="2:4" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>211</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -11290,25 +11291,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="60" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="88">
+        <v>2</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="99">
-        <v>2</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="D5" s="60"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="88"/>
+      <c r="C6" s="60" t="s">
         <v>215</v>
-      </c>
-      <c r="D5" s="60"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="99"/>
-      <c r="C6" s="60" t="s">
-        <v>216</v>
       </c>
       <c r="D6" s="60"/>
     </row>
@@ -11317,17 +11318,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
       <c r="D8" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -11335,10 +11336,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="42" x14ac:dyDescent="0.25">
@@ -11346,17 +11347,17 @@
         <v>5</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" s="60"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="60"/>
       <c r="C11" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -11366,14 +11367,14 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="68"/>
     </row>
     <row r="14" spans="2:4" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B14" s="65"/>
       <c r="C14" s="122" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="122"/>
     </row>
@@ -11382,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" s="124"/>
     </row>
@@ -11391,7 +11392,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D16" s="124"/>
     </row>
@@ -11400,7 +11401,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="125" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="124"/>
     </row>
@@ -11409,7 +11410,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="123" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="124"/>
     </row>
@@ -11418,7 +11419,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" s="124"/>
     </row>
@@ -11427,7 +11428,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="123" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D20" s="124"/>
     </row>
@@ -11446,7 +11447,7 @@
     <row r="24" spans="2:7" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B24" s="65"/>
       <c r="C24" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -11454,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D25" s="124"/>
     </row>
@@ -11463,7 +11464,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="124"/>
     </row>
@@ -11472,7 +11473,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="123" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D27" s="124"/>
     </row>
@@ -11481,7 +11482,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="123" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="124"/>
       <c r="F28" s="123"/>
@@ -11492,7 +11493,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="123" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="124"/>
     </row>
@@ -11501,7 +11502,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D30" s="124"/>
     </row>
@@ -11512,7 +11513,7 @@
     <row r="32" spans="2:7" ht="126" x14ac:dyDescent="0.25">
       <c r="B32" s="65"/>
       <c r="C32" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -11948,7 +11949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -11973,57 +11974,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="11" t="s">
         <v>76</v>
       </c>
@@ -12036,8 +12037,8 @@
       <c r="G3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
       <c r="J3" s="20" t="s">
         <v>76</v>
       </c>
@@ -12058,13 +12059,13 @@
       <c r="R3" s="37"/>
     </row>
     <row r="4" spans="1:18" ht="28" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="95">
+      <c r="B4" s="82">
         <v>2001</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="82">
         <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -12080,10 +12081,10 @@
       <c r="G4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="82">
         <v>3001</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="82">
         <v>80</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -12099,9 +12100,9 @@
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:18" ht="42" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="14" t="s">
         <v>83</v>
       </c>
@@ -12115,8 +12116,8 @@
       <c r="G5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="3" t="s">
         <v>85</v>
       </c>
@@ -12132,9 +12133,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="14" t="s">
         <v>87</v>
       </c>
@@ -12148,8 +12149,8 @@
       <c r="G6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="3" t="s">
         <v>89</v>
       </c>
@@ -12165,9 +12166,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="70" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="14" t="s">
         <v>91</v>
       </c>
@@ -12181,8 +12182,8 @@
       <c r="G7" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="3" t="s">
         <v>93</v>
       </c>
@@ -12198,9 +12199,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="56" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="3" t="s">
         <v>95</v>
       </c>
@@ -12212,8 +12213,8 @@
         <v>1</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="3" t="s">
         <v>96</v>
       </c>
@@ -12232,9 +12233,9 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="3" t="s">
         <v>99</v>
       </c>
@@ -12246,8 +12247,8 @@
         <v>1</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="14" t="s">
         <v>100</v>
       </c>
@@ -12261,9 +12262,9 @@
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:18" ht="28" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="3" t="s">
         <v>101</v>
       </c>
@@ -12275,8 +12276,8 @@
         <v>1</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
       <c r="J10" s="14" t="s">
         <v>102</v>
       </c>
@@ -12290,62 +12291,62 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
       <c r="J11" s="14"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
     </row>
     <row r="15" spans="1:18" ht="70" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="97">
         <f>B4+C4</f>
         <v>2061</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="97">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -12361,11 +12362,11 @@
       <c r="G15" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="87">
         <f>H4+I4</f>
         <v>3081</v>
       </c>
-      <c r="I15" s="109">
+      <c r="I15" s="87">
         <f>10</f>
         <v>10</v>
       </c>
@@ -12384,9 +12385,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="11" t="s">
         <v>108</v>
       </c>
@@ -12400,8 +12401,8 @@
       <c r="G16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
       <c r="J16" s="20" t="s">
         <v>110</v>
       </c>
@@ -12420,9 +12421,9 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="84" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="11" t="s">
         <v>113</v>
       </c>
@@ -12435,8 +12436,8 @@
       <c r="G17" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
       <c r="J17" s="20" t="s">
         <v>65</v>
       </c>
@@ -12455,15 +12456,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="42" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
       <c r="J18" s="20" t="s">
         <v>117</v>
       </c>
@@ -12479,59 +12480,59 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
       <c r="J19" s="34"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
       <c r="J20" s="34"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
       <c r="J21" s="34"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:14" ht="42" x14ac:dyDescent="0.25">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B22" s="88">
         <f>B15+C15</f>
         <v>2071</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="88">
         <v>10</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -12547,11 +12548,11 @@
       <c r="G22" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="99">
+      <c r="H22" s="88">
         <f>H15+I15</f>
         <v>3091</v>
       </c>
-      <c r="I22" s="99">
+      <c r="I22" s="88">
         <v>10</v>
       </c>
       <c r="J22" s="14" t="s">
@@ -12569,9 +12570,9 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="3" t="s">
         <v>108</v>
       </c>
@@ -12585,8 +12586,8 @@
       <c r="G23" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
       <c r="J23" s="14" t="s">
         <v>124</v>
       </c>
@@ -12602,9 +12603,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="70" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="3" t="s">
         <v>113</v>
       </c>
@@ -12617,8 +12618,8 @@
       <c r="G24" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
       <c r="J24" s="14" t="s">
         <v>65</v>
       </c>
@@ -12637,15 +12638,15 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="42" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
       <c r="J25" s="39" t="s">
         <v>117</v>
       </c>
@@ -12661,29 +12662,29 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
       <c r="J26" s="14"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="100">
+      <c r="B27" s="98">
         <f>B22+C22</f>
         <v>2081</v>
       </c>
-      <c r="C27" s="100">
+      <c r="C27" s="98">
         <v>10</v>
       </c>
       <c r="D27" s="11"/>
@@ -12693,7 +12694,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="110">
+      <c r="H27" s="91">
         <f>H22+I22</f>
         <v>3101</v>
       </c>
@@ -12715,14 +12716,14 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="111"/>
+      <c r="H28" s="92"/>
       <c r="I28" s="21"/>
       <c r="J28" s="34"/>
       <c r="K28" s="20"/>
@@ -12730,14 +12731,14 @@
       <c r="M28" s="38"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="111"/>
+      <c r="H29" s="92"/>
       <c r="I29" s="21"/>
       <c r="J29" s="34"/>
       <c r="K29" s="20"/>
@@ -12745,14 +12746,14 @@
       <c r="M29" s="38"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="112"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="21"/>
       <c r="J30" s="34"/>
       <c r="K30" s="20"/>
@@ -12760,14 +12761,14 @@
       <c r="M30" s="38"/>
     </row>
     <row r="31" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="95">
+      <c r="B31" s="82">
         <f>B27+C27</f>
         <v>2091</v>
       </c>
-      <c r="C31" s="95">
+      <c r="C31" s="82">
         <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -12805,9 +12806,9 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="70" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -12829,9 +12830,9 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -12844,9 +12845,9 @@
       <c r="M33" s="16"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -12859,14 +12860,14 @@
       <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="103">
+      <c r="B35" s="94">
         <f>B31+C31</f>
         <v>2101</v>
       </c>
-      <c r="C35" s="103">
+      <c r="C35" s="94">
         <v>60</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -12880,11 +12881,11 @@
         <v>1</v>
       </c>
       <c r="G35" s="23"/>
-      <c r="H35" s="113">
+      <c r="H35" s="89">
         <f>H22+I22</f>
         <v>3101</v>
       </c>
-      <c r="I35" s="113">
+      <c r="I35" s="89">
         <v>60</v>
       </c>
       <c r="J35" s="9" t="s">
@@ -12900,9 +12901,9 @@
       <c r="M35" s="41"/>
     </row>
     <row r="36" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="10" t="s">
         <v>83</v>
       </c>
@@ -12914,8 +12915,8 @@
         <v>1</v>
       </c>
       <c r="G36" s="23"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
       <c r="J36" s="9" t="s">
         <v>85</v>
       </c>
@@ -12929,9 +12930,9 @@
       <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="10" t="s">
         <v>136</v>
       </c>
@@ -12945,8 +12946,8 @@
       <c r="G37" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
       <c r="J37" s="9" t="s">
         <v>89</v>
       </c>
@@ -12960,9 +12961,9 @@
       <c r="M37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="8" t="s">
         <v>91</v>
       </c>
@@ -12976,8 +12977,8 @@
       <c r="G38" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
       <c r="J38" s="33" t="s">
         <v>139</v>
       </c>
@@ -12991,9 +12992,9 @@
       <c r="M38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="8" t="s">
         <v>95</v>
       </c>
@@ -13005,8 +13006,8 @@
         <v>1</v>
       </c>
       <c r="G39" s="23"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
       <c r="J39" s="24" t="s">
         <v>96</v>
       </c>
@@ -13022,9 +13023,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="8" t="s">
         <v>99</v>
       </c>
@@ -13036,8 +13037,8 @@
         <v>1</v>
       </c>
       <c r="G40" s="23"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
       <c r="J40" s="33" t="s">
         <v>100</v>
       </c>
@@ -13051,9 +13052,9 @@
       <c r="M40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="8" t="s">
         <v>101</v>
       </c>
@@ -13065,8 +13066,8 @@
         <v>1</v>
       </c>
       <c r="G41" s="23"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
       <c r="J41" s="33" t="s">
         <v>102</v>
       </c>
@@ -13080,15 +13081,15 @@
       <c r="M41" s="41"/>
     </row>
     <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
       <c r="J42" s="33"/>
       <c r="K42" s="9">
         <f t="shared" si="6"/>
@@ -13100,52 +13101,52 @@
       <c r="M42" s="41"/>
     </row>
     <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
       <c r="J43" s="33"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="41"/>
     </row>
     <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
       <c r="J44" s="33"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="41"/>
     </row>
     <row r="45" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="27"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
       <c r="J45" s="43"/>
       <c r="K45" s="43"/>
       <c r="L45" s="43"/>
       <c r="M45" s="41"/>
     </row>
     <row r="46" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="107" t="s">
         <v>141</v>
       </c>
       <c r="B46" s="28">
@@ -13169,11 +13170,11 @@
       <c r="G46" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="106">
+      <c r="H46" s="77">
         <f>H35+I35</f>
         <v>3161</v>
       </c>
-      <c r="I46" s="106">
+      <c r="I46" s="77">
         <v>10</v>
       </c>
       <c r="J46" s="44" t="s">
@@ -13191,7 +13192,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
+      <c r="A47" s="107"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29" t="s">
@@ -13207,8 +13208,8 @@
       <c r="G47" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
       <c r="J47" s="44" t="s">
         <v>124</v>
       </c>
@@ -13224,7 +13225,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="81"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29" t="s">
@@ -13239,8 +13240,8 @@
       <c r="G48" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
       <c r="J48" s="44" t="s">
         <v>65</v>
       </c>
@@ -13259,7 +13260,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
@@ -13283,14 +13284,14 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="103">
+      <c r="B50" s="94">
         <f>B46+C46</f>
         <v>2171</v>
       </c>
-      <c r="C50" s="103">
+      <c r="C50" s="94">
         <v>10</v>
       </c>
       <c r="D50" s="22" t="s">
@@ -13305,11 +13306,11 @@
       <c r="G50" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="H50" s="114">
+      <c r="H50" s="80">
         <f>H46+I46</f>
         <v>3171</v>
       </c>
-      <c r="I50" s="114">
+      <c r="I50" s="80">
         <v>10</v>
       </c>
       <c r="J50" s="33" t="s">
@@ -13327,15 +13328,15 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="27"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
       <c r="J51" s="33" t="s">
         <v>124</v>
       </c>
@@ -13349,29 +13350,29 @@
       <c r="M51" s="41"/>
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="85"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="27"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="114"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="80"/>
       <c r="J52" s="33"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="41"/>
     </row>
     <row r="53" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="106">
+      <c r="B53" s="77">
         <f>B50+C50</f>
         <v>2181</v>
       </c>
-      <c r="C53" s="106">
+      <c r="C53" s="77">
         <v>10</v>
       </c>
       <c r="D53" s="29" t="s">
@@ -13387,11 +13388,11 @@
       <c r="G53" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="H53" s="106">
+      <c r="H53" s="77">
         <f>H50+I50</f>
         <v>3181</v>
       </c>
-      <c r="I53" s="107">
+      <c r="I53" s="78">
         <v>10</v>
       </c>
       <c r="J53" s="44" t="s">
@@ -13409,15 +13410,15 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
+      <c r="A54" s="107"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
       <c r="G54" s="31"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
       <c r="J54" s="44" t="s">
         <v>152</v>
       </c>
@@ -13433,22 +13434,22 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="108"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
       <c r="G55" s="31"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="107"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="78"/>
       <c r="J55" s="44"/>
       <c r="K55" s="45"/>
       <c r="L55" s="45"/>
       <c r="M55" s="48"/>
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="104" t="s">
         <v>154</v>
       </c>
       <c r="B56" s="22">
@@ -13462,11 +13463,11 @@
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="27"/>
-      <c r="H56" s="113">
+      <c r="H56" s="89">
         <f>H53+I53</f>
         <v>3191</v>
       </c>
-      <c r="I56" s="114">
+      <c r="I56" s="80">
         <v>10</v>
       </c>
       <c r="J56" s="33" t="s">
@@ -13484,44 +13485,44 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="27"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
       <c r="J57" s="33"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="41"/>
     </row>
     <row r="58" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="85"/>
+      <c r="A58" s="110"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="27"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
       <c r="J58" s="33"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="41"/>
     </row>
     <row r="59" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="B59" s="95">
+      <c r="B59" s="82">
         <f>B56+C56</f>
         <v>2201</v>
       </c>
-      <c r="C59" s="95">
+      <c r="C59" s="82">
         <v>100</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -13535,11 +13536,11 @@
         <v>1</v>
       </c>
       <c r="G59" s="18"/>
-      <c r="H59" s="95">
+      <c r="H59" s="82">
         <f>H56+I56</f>
         <v>3201</v>
       </c>
-      <c r="I59" s="95">
+      <c r="I59" s="82">
         <v>400</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -13555,11 +13556,11 @@
       <c r="M59" s="18"/>
     </row>
     <row r="60" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="A60" s="92"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="96"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
       <c r="D60" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E60" s="3">
         <f>E59+F59</f>
@@ -13569,8 +13570,8 @@
         <v>1</v>
       </c>
       <c r="G60" s="18"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
       <c r="J60" s="3" t="s">
         <v>85</v>
       </c>
@@ -13586,9 +13587,9 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="112" x14ac:dyDescent="0.25">
-      <c r="A61" s="92"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
       <c r="D61" s="14" t="s">
         <v>87</v>
       </c>
@@ -13600,10 +13601,10 @@
         <v>1</v>
       </c>
       <c r="G61" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
+        <v>207</v>
+      </c>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
       <c r="J61" s="3" t="s">
         <v>89</v>
       </c>
@@ -13617,9 +13618,9 @@
       <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:13" ht="28" x14ac:dyDescent="0.25">
-      <c r="A62" s="92"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
       <c r="D62" s="14" t="s">
         <v>91</v>
       </c>
@@ -13633,8 +13634,8 @@
       <c r="G62" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
       <c r="J62" s="3" t="s">
         <v>93</v>
       </c>
@@ -13648,9 +13649,9 @@
       <c r="M62" s="18"/>
     </row>
     <row r="63" spans="1:13" ht="56" x14ac:dyDescent="0.25">
-      <c r="A63" s="92"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
       <c r="D63" s="3" t="s">
         <v>158</v>
       </c>
@@ -13664,8 +13665,8 @@
       <c r="G63" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
       <c r="J63" s="3" t="s">
         <v>96</v>
       </c>
@@ -13681,11 +13682,11 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="56" x14ac:dyDescent="0.25">
-      <c r="A64" s="92"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="96"/>
+      <c r="A64" s="102"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
       <c r="D64" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E64" s="3">
         <f>E63+F63</f>
@@ -13695,10 +13696,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="H64" s="96"/>
-      <c r="I64" s="96"/>
+        <v>242</v>
+      </c>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
       <c r="J64" s="3" t="s">
         <v>160</v>
       </c>
@@ -13714,11 +13715,11 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="56" x14ac:dyDescent="0.25">
-      <c r="A65" s="92"/>
-      <c r="B65" s="96"/>
-      <c r="C65" s="96"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
       <c r="D65" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E65" s="3">
         <f>E64+F64</f>
@@ -13728,10 +13729,10 @@
         <v>1</v>
       </c>
       <c r="G65" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
+        <v>242</v>
+      </c>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
       <c r="J65" s="3" t="s">
         <v>162</v>
       </c>
@@ -13748,11 +13749,11 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="56" x14ac:dyDescent="0.25">
-      <c r="A66" s="93"/>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
+      <c r="A66" s="103"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
       <c r="D66" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E66" s="3">
         <f>E64+47</f>
@@ -13762,20 +13763,20 @@
         <v>1</v>
       </c>
       <c r="G66" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
+        <v>242</v>
+      </c>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
     </row>
     <row r="67" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="83" t="s">
+      <c r="A67" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="103">
+      <c r="B67" s="94">
         <f>B59+C59</f>
         <v>2301</v>
       </c>
-      <c r="C67" s="103">
+      <c r="C67" s="94">
         <v>100</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -13789,11 +13790,11 @@
         <v>1</v>
       </c>
       <c r="G67" s="23"/>
-      <c r="H67" s="116">
+      <c r="H67" s="85">
         <f>H59+I59</f>
         <v>3601</v>
       </c>
-      <c r="I67" s="116">
+      <c r="I67" s="85">
         <v>100</v>
       </c>
       <c r="J67" s="33" t="s">
@@ -13809,9 +13810,9 @@
       <c r="M67" s="47"/>
     </row>
     <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="104"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
       <c r="D68" s="10" t="s">
         <v>83</v>
       </c>
@@ -13823,8 +13824,8 @@
         <v>1</v>
       </c>
       <c r="G68" s="23"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="J68" s="33" t="s">
         <v>85</v>
       </c>
@@ -13838,9 +13839,9 @@
       <c r="M68" s="47"/>
     </row>
     <row r="69" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
+      <c r="A69" s="105"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="95"/>
       <c r="D69" s="10" t="s">
         <v>87</v>
       </c>
@@ -13852,10 +13853,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H69" s="117"/>
-      <c r="I69" s="117"/>
+        <v>233</v>
+      </c>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="J69" s="33" t="s">
         <v>89</v>
       </c>
@@ -13869,9 +13870,9 @@
       <c r="M69" s="47"/>
     </row>
     <row r="70" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
+      <c r="A70" s="105"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="95"/>
       <c r="D70" s="10" t="s">
         <v>165</v>
       </c>
@@ -13885,8 +13886,8 @@
       <c r="G70" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="H70" s="117"/>
-      <c r="I70" s="117"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="J70" s="33" t="s">
         <v>93</v>
       </c>
@@ -13900,9 +13901,9 @@
       <c r="M70" s="47"/>
     </row>
     <row r="71" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
-      <c r="B71" s="105"/>
-      <c r="C71" s="104"/>
+      <c r="A71" s="105"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="95"/>
       <c r="D71" s="10" t="s">
         <v>167</v>
       </c>
@@ -13916,8 +13917,8 @@
       <c r="G71" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="H71" s="117"/>
-      <c r="I71" s="117"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
       <c r="J71" s="33" t="s">
         <v>96</v>
       </c>
@@ -13933,9 +13934,9 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="84"/>
+      <c r="A72" s="105"/>
       <c r="B72" s="25"/>
-      <c r="C72" s="104"/>
+      <c r="C72" s="95"/>
       <c r="D72" s="10" t="s">
         <v>158</v>
       </c>
@@ -13949,8 +13950,8 @@
       <c r="G72" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="H72" s="117"/>
-      <c r="I72" s="117"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="86"/>
       <c r="J72" s="33" t="s">
         <v>170</v>
       </c>
@@ -13966,9 +13967,9 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="84"/>
+      <c r="A73" s="105"/>
       <c r="B73" s="25"/>
-      <c r="C73" s="104"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="10" t="s">
         <v>172</v>
       </c>
@@ -13982,8 +13983,8 @@
       <c r="G73" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="86"/>
       <c r="J73" s="33" t="s">
         <v>174</v>
       </c>
@@ -13999,14 +14000,14 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="86" t="s">
+      <c r="A74" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="106">
+      <c r="B74" s="77">
         <f>B67+C67</f>
         <v>2401</v>
       </c>
-      <c r="C74" s="106">
+      <c r="C74" s="77">
         <v>100</v>
       </c>
       <c r="D74" s="45" t="s">
@@ -14020,11 +14021,11 @@
         <v>1</v>
       </c>
       <c r="G74" s="48"/>
-      <c r="H74" s="106">
+      <c r="H74" s="77">
         <f>H67+I67</f>
         <v>3701</v>
       </c>
-      <c r="I74" s="106">
+      <c r="I74" s="77">
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
@@ -14040,9 +14041,9 @@
       <c r="M74" s="48"/>
     </row>
     <row r="75" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="81"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
+      <c r="A75" s="107"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
       <c r="D75" s="44" t="s">
         <v>83</v>
       </c>
@@ -14054,8 +14055,8 @@
         <v>1</v>
       </c>
       <c r="G75" s="48"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="107"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
       <c r="J75" s="3" t="s">
         <v>85</v>
       </c>
@@ -14071,9 +14072,9 @@
       </c>
     </row>
     <row r="76" spans="1:13" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="81"/>
-      <c r="B76" s="107"/>
-      <c r="C76" s="107"/>
+      <c r="A76" s="107"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
       <c r="D76" s="44" t="s">
         <v>87</v>
       </c>
@@ -14087,8 +14088,8 @@
       <c r="G76" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="H76" s="107"/>
-      <c r="I76" s="107"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
       <c r="J76" s="3" t="s">
         <v>89</v>
       </c>
@@ -14102,9 +14103,9 @@
       <c r="M76" s="48"/>
     </row>
     <row r="77" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="81"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
+      <c r="A77" s="107"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
       <c r="D77" s="44" t="s">
         <v>91</v>
       </c>
@@ -14118,8 +14119,8 @@
       <c r="G77" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
       <c r="J77" s="3" t="s">
         <v>93</v>
       </c>
@@ -14133,9 +14134,9 @@
       <c r="M77" s="48"/>
     </row>
     <row r="78" spans="1:13" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="81"/>
-      <c r="B78" s="107"/>
-      <c r="C78" s="107"/>
+      <c r="A78" s="107"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
       <c r="D78" s="44" t="s">
         <v>167</v>
       </c>
@@ -14147,10 +14148,10 @@
         <v>48</v>
       </c>
       <c r="G78" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="H78" s="107"/>
-      <c r="I78" s="107"/>
+        <v>208</v>
+      </c>
+      <c r="H78" s="78"/>
+      <c r="I78" s="78"/>
       <c r="J78" s="3" t="s">
         <v>96</v>
       </c>
@@ -14166,9 +14167,9 @@
       </c>
     </row>
     <row r="79" spans="1:13" s="6" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="81"/>
-      <c r="B79" s="107"/>
-      <c r="C79" s="107"/>
+      <c r="A79" s="107"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
       <c r="D79" s="44" t="s">
         <v>158</v>
       </c>
@@ -14182,8 +14183,8 @@
       <c r="G79" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
+      <c r="H79" s="78"/>
+      <c r="I79" s="78"/>
       <c r="J79" s="39" t="s">
         <v>170</v>
       </c>
@@ -14199,15 +14200,15 @@
       </c>
     </row>
     <row r="80" spans="1:13" s="6" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="82"/>
-      <c r="B80" s="108"/>
-      <c r="C80" s="108"/>
+      <c r="A80" s="108"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="44"/>
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
       <c r="G80" s="46"/>
-      <c r="H80" s="108"/>
-      <c r="I80" s="108"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79"/>
       <c r="J80" s="39" t="s">
         <v>177</v>
       </c>
@@ -14224,17 +14225,46 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="I74:I80"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="I59:I66"/>
-    <mergeCell ref="I67:I73"/>
-    <mergeCell ref="I4:I14"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="I35:I45"/>
-    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="C4:C14"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
     <mergeCell ref="C74:C80"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H14"/>
@@ -14251,46 +14281,17 @@
     <mergeCell ref="H74:H80"/>
     <mergeCell ref="C35:C45"/>
     <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="C4:C14"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I14"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="I35:I45"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I74:I80"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="I59:I66"/>
+    <mergeCell ref="I67:I73"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14437,8 +14438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -14518,7 +14519,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -14529,7 +14530,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -14537,10 +14538,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -14548,10 +14549,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -14581,15 +14582,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
         <v>196</v>
-      </c>
-      <c r="B1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14600,7 +14601,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14611,7 +14612,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -14622,7 +14623,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>189</v>
@@ -14630,7 +14631,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
         <v>189</v>
@@ -14638,7 +14639,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
         <v>189</v>
@@ -14646,28 +14647,28 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
